--- a/premise/data/additional_inventories/lci-lithium.xlsx
+++ b/premise/data/additional_inventories/lci-lithium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD59F9B-73C5-9745-8790-F5EF051E0105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28434285-8471-FD4B-A5A5-F95D4840CA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="2020" windowWidth="29040" windowHeight="17520" tabRatio="847" activeTab="6" xr2:uid="{EF7E5FDC-15C0-45A1-93C9-9ABA15D611A1}"/>
   </bookViews>
@@ -599,18 +599,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,43 +931,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="39.1640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -998,7 +993,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1006,443 +1001,354 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
         <f>88100/153100</f>
         <v>0.57544088830829521</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <f>12000/153100</f>
         <v>7.838014369693011E-2</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <f>40000/153100</f>
         <v>0.26126714565643372</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <f>5000/153100</f>
         <v>3.2658393207054215E-2</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <f>8000/153100</f>
         <v>5.2253429131286742E-2</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18">
         <f>16000*0.001</f>
         <v>16</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>143</v>
       </c>
       <c r="C29" t="s">
@@ -1462,26 +1368,26 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
         <f>16000*0.001</f>
         <v>16</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1497,21 +1403,21 @@
   </sheetPr>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2" customWidth="1"/>
-    <col min="9" max="13" width="9" style="2"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="13" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1529,17 +1435,6 @@
       <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1548,17 +1443,6 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1567,17 +1451,6 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1586,47 +1459,19 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1691,12 +1536,6 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1720,7 +1559,6 @@
       <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="H10"/>
       <c r="I10">
         <v>2</v>
       </c>
@@ -1730,15 +1568,11 @@
       <c r="K10">
         <v>0.52269439874826651</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
       <c r="D11">
         <v>1E-3</v>
       </c>
@@ -1763,23 +1597,6 @@
       <c r="K11">
         <v>0.52269439874826651</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1797,17 +1614,6 @@
         <f>B13</f>
         <v>filtering, through water ion exchanger</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1816,17 +1622,6 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1835,17 +1630,6 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1854,47 +1638,19 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1961,12 +1717,6 @@
       <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1990,7 +1740,6 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="H22"/>
       <c r="I22">
         <v>2</v>
       </c>
@@ -2000,15 +1749,11 @@
       <c r="K22">
         <v>0.52269439874826651</v>
       </c>
-      <c r="L22"/>
-      <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
       <c r="D23">
         <v>1E-3</v>
       </c>
@@ -2033,8 +1778,6 @@
       <c r="K23">
         <v>0.52269439874826651</v>
       </c>
-      <c r="L23"/>
-      <c r="M23"/>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2051,17 +1794,6 @@
       <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2070,17 +1802,6 @@
       <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2089,17 +1810,6 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2108,47 +1818,19 @@
       <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>107</v>
       </c>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2213,12 +1895,6 @@
       <c r="G33" t="s">
         <v>18</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2242,7 +1918,6 @@
       <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="H34"/>
       <c r="I34">
         <v>2</v>
       </c>
@@ -2252,238 +1927,220 @@
       <c r="K34">
         <v>0.92281206220477863</v>
       </c>
-      <c r="L34"/>
-      <c r="M34"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s">
         <v>91</v>
       </c>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>0.1055414191739782</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="2">
-        <v>5</v>
-      </c>
-      <c r="J45" s="2">
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
         <v>0.1055414191739782</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45">
         <v>7.3878993421784736E-2</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45">
         <v>0.13720384492617166</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
         <v>2.2472632505511989E-3</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="2">
-        <v>5</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
         <v>2.2472632505511989E-3</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46">
         <v>1.9101737629685191E-3</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46">
         <v>2.5843527381338785E-3</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>1.6088665933519349E-4</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="2">
-        <v>2</v>
-      </c>
-      <c r="J47" s="2">
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
         <v>-8.7348104201740959</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47">
         <v>0.21699341161764388</v>
       </c>
     </row>
@@ -2494,2205 +2151,2093 @@
       <c r="B48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>0.1895833262163252</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="2">
-        <v>2</v>
-      </c>
-      <c r="J48" s="2">
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
         <v>-1.66292663492535</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48">
         <v>0.1110776002800187</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>0.24</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="2">
-        <v>5</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
         <v>0.24</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49">
         <v>0.216</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49">
         <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>2.2033311689119981E-10</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="2">
-        <v>2</v>
-      </c>
-      <c r="J50" s="2">
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
         <v>-22.235880547084939</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50">
         <v>0.18977295444631392</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>5.5083279222799941E-12</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="2">
-        <v>2</v>
-      </c>
-      <c r="J51" s="2">
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
         <v>-25.924760001198877</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51">
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>5.5083279222799941E-12</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>33</v>
       </c>
-      <c r="I52" s="2">
-        <v>2</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
         <v>-25.924760001198877</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52">
         <v>5.2655713531501343E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" t="s">
         <v>90</v>
       </c>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="L61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="M61" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
         <v>0.99199999999999999</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="2">
-        <v>5</v>
-      </c>
-      <c r="J63" s="2">
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
         <v>0.99199999999999999</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63">
         <v>0.69439999999999991</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63">
         <v>1.2896000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>41</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>3.1279417142857147E-2</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>42</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="2">
-        <v>5</v>
-      </c>
-      <c r="J64" s="2">
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
         <v>3.1279417142857147E-2</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64">
         <v>2.1895592000000002E-2</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64">
         <v>4.0663242285714295E-2</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>2.7408058004678409E-2</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="2">
-        <v>5</v>
-      </c>
-      <c r="J65" s="2">
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
         <v>2.7408058004678409E-2</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65">
         <v>1.3704029002339205E-2</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65">
         <v>4.1112087007017614E-2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>2.4546136534133539E-2</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="2">
-        <v>5</v>
-      </c>
-      <c r="J66" s="2">
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
         <v>2.4546136534133539E-2</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66">
         <v>1.227306826706677E-2</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66">
         <v>3.6819204801200309E-2</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="2">
-        <v>5</v>
-      </c>
-      <c r="J67" s="2">
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
         <v>5.9335833958489619E-2</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="2">
-        <v>5</v>
-      </c>
-      <c r="J68" s="2">
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
         <v>5.9335833958489619E-2</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68">
         <v>2.9667916979244809E-2</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68">
         <v>8.9003750937734424E-2</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" t="s">
         <v>96</v>
       </c>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M77" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s">
         <v>48</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
         <f>0.166666666666667*0.00106295993458708</f>
         <v>1.7715998909784703E-4</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" t="s">
         <v>48</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I79" s="2">
-        <v>5</v>
-      </c>
-      <c r="J79" s="2">
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
         <f>0.166666666666667*0.00106295993458708</f>
         <v>1.7715998909784703E-4</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79">
         <f>0.166666666666667*0.00106295993458708</f>
         <v>1.7715998909784703E-4</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79">
         <f>0.166666666666667*0.00106295993458708*2</f>
         <v>3.5431997819569406E-4</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2">
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
         <v>48</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I80" s="2">
-        <v>5</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
         <v>0.16666666666666699</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80">
         <f>0.166666667*0.7</f>
         <v>0.11666666689999998</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80">
         <f>0.166666667*1.3</f>
         <v>0.21666666709999999</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>41</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I81" s="2">
-        <v>5</v>
-      </c>
-      <c r="J81" s="2">
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
         <v>0</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81">
         <v>0.3</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
         <v>1.319382605060973E-2</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
         <v>26</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" s="2">
-        <v>5</v>
-      </c>
-      <c r="J82" s="2">
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
         <v>1.319382605060973E-2</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82">
         <v>1.1874443445548758E-2</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82">
         <v>1.4513208655670705E-2</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2">
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="M92" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="2">
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94">
         <f>1.021316546*0.999412878</f>
         <v>1.0207169085868795</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>1</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I94" s="2">
-        <v>5</v>
-      </c>
-      <c r="J94" s="2">
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94">
         <f>1.02131654611599*0.999412878</f>
         <v>1.0207169087028014</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94">
         <f>0.714921582281192*0.999412878</f>
         <v>0.71450183609195983</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94">
         <f>1.32771150995078*0.999412878</f>
         <v>1.3269319813136347</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>23</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="2">
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95">
         <f>0.999412878*0.000996032640623244</f>
         <v>9.9544784794721591E-4</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" s="2">
-        <v>2</v>
-      </c>
-      <c r="J95" s="2">
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
         <v>-6.9117305292065723</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95">
         <v>0.61115429177263814</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>1.8276552313448999E-3</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
         <v>26</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="2">
-        <v>5</v>
-      </c>
-      <c r="J96" s="2">
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96">
         <v>1.8276552313448999E-3</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96">
         <v>1.2793586619414298E-3</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96">
         <v>2.3759518007483698E-3</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97">
         <v>5.8712189933269796E-4</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
         <v>1</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="2">
-        <v>5</v>
-      </c>
-      <c r="J97" s="2">
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
         <v>5.8712189933269796E-4</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97">
         <v>4.1098532953288855E-4</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M97">
         <v>7.6325846913250742E-4</v>
       </c>
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>84</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" t="s">
         <v>100</v>
       </c>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" t="s">
         <v>10</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I106" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K106" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L106" s="3" t="s">
+      <c r="L106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M106" s="3" t="s">
+      <c r="M106" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="2">
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
         <v>1</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="2">
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
         <f>0.638398335*0.00106748788883396</f>
         <v>6.8148249086426511E-4</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
         <v>25</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" t="s">
         <v>26</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" s="2">
-        <v>2</v>
-      </c>
-      <c r="J108" s="2">
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
         <f>0.638398335*-6.84244715828046</f>
         <v>-4.3682068731717267</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108">
         <f>0.638398335*0.611154291772638</f>
         <v>0.39015988229575632</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="2">
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
         <f>1.00425976*0.638398335</f>
         <v>0.64111775869149967</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
         <v>1</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="2">
-        <v>5</v>
-      </c>
-      <c r="J109" s="2">
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="J109">
         <f>0.638398335*1.00425976003379</f>
         <v>0.64111775871307097</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L109">
         <f>0.638398335*0.702981832023654</f>
         <v>0.44878243109915039</v>
       </c>
-      <c r="M109" s="2">
+      <c r="M109">
         <f>0.638398335*1.30553768804393</f>
         <v>0.83345308632699433</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>41</v>
       </c>
       <c r="C110" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
         <v>8.7889210766141285E-2</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" t="s">
         <v>42</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" t="s">
         <v>26</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I110" s="2">
-        <v>5</v>
-      </c>
-      <c r="J110" s="2">
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110">
+        <v>5</v>
+      </c>
+      <c r="J110">
         <v>8.7889210766141285E-2</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110">
         <v>6.1522447536298895E-2</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110">
         <v>0.11425597399598367</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>49</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>6.0266944179898863E-2</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" t="s">
         <v>26</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I111" s="2">
-        <v>5</v>
-      </c>
-      <c r="J111" s="2">
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111">
         <v>6.0266944179898863E-2</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111">
         <v>4.2186860925929201E-2</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M111">
         <v>7.8347027433868524E-2</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="2">
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
         <v>0.30133472089949431</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s">
         <v>30</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="2">
-        <v>5</v>
-      </c>
-      <c r="J112" s="2">
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+      <c r="J112">
         <v>0.30133472089949431</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112">
         <v>0.21093430462964602</v>
       </c>
-      <c r="M112" s="2">
+      <c r="M112">
         <v>0.39173513716934261</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="A114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" t="s">
         <v>103</v>
       </c>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s">
         <v>6</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" t="s">
         <v>7</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" t="s">
         <v>0</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" t="s">
         <v>10</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" t="s">
         <v>11</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="I121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K121" s="3" t="s">
+      <c r="K121" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L121" s="3" t="s">
+      <c r="L121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="3" t="s">
+      <c r="M121" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>102</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="2">
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" t="s">
         <v>1</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>23</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="2">
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123">
         <f>0.75*0.0240952374678258</f>
         <v>1.8071428100869352E-2</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" t="s">
         <v>25</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" t="s">
         <v>26</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I123" s="2">
-        <v>2</v>
-      </c>
-      <c r="J123" s="2">
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
         <f>0.75*-3.72574107345695</f>
         <v>-2.7943058050927125</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123">
         <f>0.75*0.611154291772638</f>
         <v>0.45836571882947852</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>104</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
         <f>0.75*22.66805802</f>
         <v>17.001043514999999</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" t="s">
         <v>1</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I124" s="2">
-        <v>5</v>
-      </c>
-      <c r="J124" s="2">
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124">
         <f>0.75*22.6680580178084</f>
         <v>17.001043513356301</v>
       </c>
-      <c r="L124" s="2">
+      <c r="L124">
         <f>0.75*15.8676406124659</f>
         <v>11.900730459349425</v>
       </c>
-      <c r="M124" s="2">
+      <c r="M124">
         <f>0.75*29.4684754231509</f>
         <v>22.101356567363176</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>110</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="2">
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
         <v>1</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I125" s="2">
-        <v>2</v>
-      </c>
-      <c r="J125" s="2">
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
         <v>0</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125">
         <v>0.45728286044739258</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+      <c r="A126" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>41</v>
       </c>
       <c r="C126" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>0.49501857142857142</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" t="s">
         <v>42</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" t="s">
         <v>26</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I126" s="2">
-        <v>5</v>
-      </c>
-      <c r="J126" s="2">
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126">
+        <v>5</v>
+      </c>
+      <c r="J126">
         <v>0.49501857142857142</v>
       </c>
-      <c r="L126" s="2">
+      <c r="L126">
         <v>0.34651299999999996</v>
       </c>
-      <c r="M126" s="2">
+      <c r="M126">
         <v>0.64352414285714288</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+      <c r="A129" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" t="s">
         <v>90</v>
       </c>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" t="s">
         <v>7</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" t="s">
         <v>0</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" t="s">
         <v>10</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="H135" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="I135" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="K135" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="L135" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M135" s="3" t="s">
+      <c r="M135" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>106</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>104</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="2">
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="E136" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" t="s">
         <v>1</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" t="s">
         <v>110</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>110</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="2">
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137">
         <f>1.045680271*0.96487842531841</f>
         <v>1.0089543332690081</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="2" t="s">
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I137" s="2">
-        <v>5</v>
-      </c>
-      <c r="J137" s="2">
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137">
         <f>1.045680271*0.96487842531841</f>
         <v>1.0089543332690081</v>
       </c>
-      <c r="L137" s="2">
+      <c r="L137">
         <f>1.045680271*0.675414897722887</f>
         <v>0.70626803328830567</v>
       </c>
-      <c r="M137" s="2">
+      <c r="M137">
         <f>1.045680271*1.25434195291393</f>
         <v>1.3116406332497075</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+      <c r="A138" t="s">
         <v>102</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
         <v>101</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="2">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
         <f>0.070243149*1.045680271</f>
         <v>7.3451875082213375E-2</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="2" t="s">
+      <c r="E138" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" t="s">
         <v>1</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I138" s="2">
-        <v>5</v>
-      </c>
-      <c r="J138" s="2">
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+      <c r="J138">
         <f>1.045680271*0.0702431493631802</f>
         <v>7.3451875461983743E-2</v>
       </c>
-      <c r="L138" s="2">
+      <c r="L138">
         <f>1.045680271*0.0491702045542262</f>
         <v>5.1416312823388682E-2</v>
       </c>
-      <c r="M138" s="2">
+      <c r="M138">
         <f>1.045680271*0.0913160941721343</f>
         <v>9.54874381005789E-2</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>40</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>41</v>
       </c>
       <c r="C139" t="s">
         <v>37</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>0.58369443111746944</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" t="s">
         <v>42</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" t="s">
         <v>26</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I139" s="2">
-        <v>5</v>
-      </c>
-      <c r="J139" s="2">
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+      <c r="J139">
         <v>0.58369443111746944</v>
       </c>
-      <c r="L139" s="2">
+      <c r="L139">
         <v>0.40858610178222859</v>
       </c>
-      <c r="M139" s="2">
+      <c r="M139">
         <v>0.75880276045271033</v>
       </c>
     </row>
     <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+      <c r="A143" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>84</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" t="s">
         <v>105</v>
       </c>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-      <c r="M146"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>9</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" t="s">
         <v>6</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" t="s">
         <v>7</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" t="s">
         <v>0</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" t="s">
         <v>10</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="H148" t="s">
         <v>11</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="J148" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K148" s="3" t="s">
+      <c r="K148" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L148" s="3" t="s">
+      <c r="L148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M148" s="3" t="s">
+      <c r="M148" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
         <v>140</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="2">
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
         <v>1</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>23</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>24</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="2">
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
         <f>0.0192953536452123*0.75*1.1764*1.7</f>
         <v>2.8941293885990382E-2</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" t="s">
         <v>25</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" t="s">
         <v>26</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I150" s="2">
-        <v>2</v>
-      </c>
-      <c r="J150" s="2">
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
         <f>-3.94789095582612*0.75*1.1764*0.17</f>
         <v>-0.59214811235531561</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150">
         <f>0.611154291772638*0.75*1.1764*1.7</f>
         <v>0.91667643377269736</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>106</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
         <v>104</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="2">
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
         <f>18.15*0.75*1.1764*1.7</f>
         <v>27.223366499999994</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I151" s="2">
-        <v>5</v>
-      </c>
-      <c r="J151" s="2">
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151">
+        <v>5</v>
+      </c>
+      <c r="J151">
         <f>18.1524750062266*0.75*1.1764*1.7</f>
         <v>27.227078786589338</v>
       </c>
-      <c r="L151" s="2">
+      <c r="L151">
         <f>12.7067325043586*0.75*1.1764*1.7</f>
         <v>19.058955150612508</v>
       </c>
-      <c r="M151" s="2">
+      <c r="M151">
         <f>23.5982175080946*0.75*1.1764*1.7</f>
         <v>35.395202422566165</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>23</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>24</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="2">
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152">
         <f>0.00125054109951421*1.7</f>
         <v>2.1259198691741571E-3</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" t="s">
         <v>25</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F152" t="s">
         <v>26</v>
       </c>
-      <c r="G152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I152" s="2">
-        <v>2</v>
-      </c>
-      <c r="J152" s="2">
+      <c r="G152" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
         <f>-6.68417894172191*1.7</f>
         <v>-11.363104200927248</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152">
         <f>0.611154291772638*1.7</f>
         <v>1.0389622960134846</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>40</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
         <v>41</v>
       </c>
       <c r="C153" t="s">
         <v>37</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>3</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" t="s">
         <v>42</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" t="s">
         <v>26</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I153" s="2">
-        <v>2</v>
-      </c>
-      <c r="J153" s="2">
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
         <v>1.0986122886681098</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153">
         <v>1.0034440819843768</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>23</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>24</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="2">
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154">
         <v>0.3</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" t="s">
         <v>25</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F154" t="s">
         <v>26</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I154" s="2">
-        <v>2</v>
-      </c>
-      <c r="J154" s="2">
+      <c r="G154" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
         <v>-1.2039728043259361</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154">
         <v>1.0034440819843768</v>
       </c>
     </row>
@@ -4709,7 +4254,7 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -4768,18 +4313,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4912,42 +4451,20 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4974,18 +4491,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -5034,10 +4545,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>89</v>
       </c>
       <c r="C21" t="s">
@@ -5313,42 +4824,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -5375,18 +4864,12 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -5435,10 +4918,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
       <c r="C39" t="s">
@@ -5461,10 +4944,10 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>89</v>
       </c>
       <c r="C40" t="s">
@@ -5600,10 +5083,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>109</v>
       </c>
       <c r="C44" t="s">
@@ -5638,7 +5121,7 @@
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5646,7 +5129,7 @@
       <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5675,18 +5158,12 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -5735,10 +5212,10 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>104</v>
       </c>
       <c r="C54" t="s">
@@ -5793,10 +5270,10 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>104</v>
       </c>
       <c r="C56" t="s">
@@ -5898,10 +5375,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
         <v>109</v>
       </c>
       <c r="C59" t="s">
@@ -5988,10 +5465,10 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" t="s">
         <v>109</v>
       </c>
       <c r="C62" t="s">
@@ -6056,7 +5533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -6076,7 +5553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6096,7 +5573,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6116,45 +5593,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -6162,7 +5617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -6170,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -6178,26 +5633,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -6223,11 +5672,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>140</v>
       </c>
       <c r="C77" t="s">
@@ -6246,11 +5695,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>104</v>
       </c>
       <c r="C78" t="s">
@@ -6270,7 +5719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -6294,11 +5743,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" t="s">
         <v>109</v>
       </c>
       <c r="C80" t="s">
@@ -6425,8 +5874,8 @@
   </sheetPr>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A104" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6444,7 +5893,7 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6452,7 +5901,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6481,18 +5930,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6544,7 +5987,7 @@
       <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>89</v>
       </c>
       <c r="C9" t="s">
@@ -6820,7 +6263,7 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6828,7 +6271,7 @@
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6857,18 +6300,12 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -6917,10 +6354,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
       <c r="C27" t="s">
@@ -6943,7 +6380,7 @@
       <c r="A28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>89</v>
       </c>
       <c r="C28" t="s">
@@ -7118,7 +6555,7 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7126,7 +6563,7 @@
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7155,18 +6592,12 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -7215,10 +6646,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>95</v>
       </c>
       <c r="C42" t="s">
@@ -7238,10 +6669,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>93</v>
       </c>
       <c r="C43" t="s">
@@ -7369,7 +6800,7 @@
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7377,7 +6808,7 @@
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7406,18 +6837,12 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -7466,10 +6891,10 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>98</v>
       </c>
       <c r="C56" t="s">
@@ -7521,10 +6946,10 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>95</v>
       </c>
       <c r="C58" t="s">
@@ -7629,7 +7054,7 @@
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7637,7 +7062,7 @@
       <c r="A63" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7666,18 +7091,12 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -7726,10 +7145,10 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>120</v>
       </c>
       <c r="C70" t="s">
@@ -7781,10 +7200,10 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>98</v>
       </c>
       <c r="C72" t="s">
@@ -7889,7 +7308,7 @@
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7897,7 +7316,7 @@
       <c r="A77" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7926,18 +7345,12 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -7986,10 +7399,10 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>104</v>
       </c>
       <c r="C84" t="s">
@@ -8009,10 +7422,10 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
@@ -8330,6 +7743,24 @@
       <c r="I94">
         <v>2</v>
       </c>
+      <c r="J94">
+        <f>LN(D94)</f>
+        <v>-5.5740530079647783</v>
+      </c>
+      <c r="K94">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -8353,6 +7784,24 @@
       <c r="I95">
         <v>2</v>
       </c>
+      <c r="J95">
+        <f>LN(D95)</f>
+        <v>-7.5261551272680123</v>
+      </c>
+      <c r="K95">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -8376,12 +7825,30 @@
       <c r="I96">
         <v>2</v>
       </c>
+      <c r="J96">
+        <f>LN(D96)</f>
+        <v>-8.7157391941418503</v>
+      </c>
+      <c r="K96">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8389,7 +7856,7 @@
       <c r="A99" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8418,18 +7885,12 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -8478,10 +7939,10 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
+      <c r="A106" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="C106" t="s">
@@ -8501,10 +7962,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" t="s">
         <v>121</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>104</v>
       </c>
       <c r="C107" t="s">
@@ -8664,7 +8125,7 @@
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8672,7 +8133,7 @@
       <c r="A114" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8701,18 +8162,12 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" t="s">
         <v>90</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -8761,10 +8216,10 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
+      <c r="A121" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>140</v>
       </c>
       <c r="C121" t="s">
@@ -9029,7 +8484,7 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -9048,7 +8503,7 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9056,7 +8511,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9085,18 +8540,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9145,10 +8594,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>89</v>
       </c>
       <c r="C9" t="s">
@@ -9424,7 +8873,7 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9432,7 +8881,7 @@
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9461,18 +8910,12 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -9521,10 +8964,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
       <c r="C27" t="s">
@@ -9777,7 +9220,7 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9785,7 +9228,7 @@
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9814,18 +9257,12 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -9874,10 +9311,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>95</v>
       </c>
       <c r="C44" t="s">
@@ -9897,10 +9334,10 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
       <c r="C45" t="s">
@@ -10072,7 +9509,7 @@
       <c r="A51" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10080,7 +9517,7 @@
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10109,18 +9546,12 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -10169,10 +9600,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>104</v>
       </c>
       <c r="C59" t="s">
@@ -10224,10 +9655,10 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>95</v>
       </c>
       <c r="C61" t="s">
@@ -10355,7 +9786,7 @@
       <c r="A66" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10363,7 +9794,7 @@
       <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>104</v>
       </c>
     </row>
@@ -10392,18 +9823,12 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -10452,10 +9877,10 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>104</v>
       </c>
       <c r="C74" t="s">
@@ -10475,10 +9900,10 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>104</v>
       </c>
       <c r="C75" t="s">
@@ -10682,7 +10107,7 @@
       <c r="A82" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10690,7 +10115,7 @@
       <c r="A83" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10719,18 +10144,12 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -10779,10 +10198,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>140</v>
       </c>
       <c r="C90" t="s">
@@ -10802,10 +10221,10 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>104</v>
       </c>
       <c r="C91" t="s">
@@ -11044,8 +10463,8 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="138" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11101,18 +10520,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -11248,7 +10661,7 @@
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11256,7 +10669,7 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11285,18 +10698,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -11345,10 +10752,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>129</v>
       </c>
       <c r="C21" t="s">
@@ -11565,18 +10972,12 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -11648,10 +11049,10 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>129</v>
       </c>
       <c r="C37" t="s">
@@ -11765,6 +11166,9 @@
       <c r="G40" t="s">
         <v>27</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -11852,6 +11256,24 @@
       <c r="I43">
         <v>2</v>
       </c>
+      <c r="J43">
+        <f>LN(D43)</f>
+        <v>-5.3570029300228379</v>
+      </c>
+      <c r="K43">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -11875,6 +11297,24 @@
       <c r="I44">
         <v>2</v>
       </c>
+      <c r="J44">
+        <f>LN(D44)</f>
+        <v>-7.3091050493260719</v>
+      </c>
+      <c r="K44">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -11898,6 +11338,24 @@
       <c r="I45">
         <v>2</v>
       </c>
+      <c r="J45">
+        <f>LN(D45)</f>
+        <v>-8.4986891161999107</v>
+      </c>
+      <c r="K45">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -11940,18 +11398,12 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -12000,7 +11452,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" t="s">
         <v>132</v>
       </c>
       <c r="B55" t="s">
@@ -12122,7 +11574,7 @@
       <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -12130,7 +11582,7 @@
       <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12159,18 +11611,12 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -12219,10 +11665,10 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>104</v>
       </c>
       <c r="C68" t="s">
@@ -12242,7 +11688,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" t="s">
         <v>132</v>
       </c>
       <c r="B69" t="s">
@@ -12382,7 +11828,7 @@
       <c r="A74" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12390,7 +11836,7 @@
       <c r="A75" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12419,18 +11865,12 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -12479,10 +11919,10 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>104</v>
       </c>
       <c r="C82" t="s">
@@ -12502,10 +11942,10 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>104</v>
       </c>
       <c r="C83" t="s">
@@ -12709,7 +12149,7 @@
       <c r="A90" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12717,7 +12157,7 @@
       <c r="A91" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12746,18 +12186,12 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -12809,7 +12243,7 @@
       <c r="A98" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>140</v>
       </c>
       <c r="C98" t="s">
@@ -12829,10 +12263,10 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>104</v>
       </c>
       <c r="C99" t="s">
@@ -13082,7 +12516,7 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13090,7 +12524,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13119,18 +12553,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -13179,10 +12607,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>143</v>
       </c>
       <c r="C9" t="s">
@@ -13202,145 +12630,145 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
         <f>0.575440888308295*1.05</f>
         <v>0.60421293272370979</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <f>0.0783801436969301*1.05</f>
         <v>8.2299150881776612E-2</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <f>0.261267145656434*1.05</f>
         <v>0.2743305029392557</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <f>0.0326583932070542*1.05</f>
         <v>3.4291312867406915E-2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <f>0.0522534291312867*1.05</f>
         <v>5.486610058785104E-2</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13391,10 +12819,10 @@
       <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13415,10 +12843,10 @@
       <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13438,10 +12866,10 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13453,7 +12881,7 @@
         <f>0.1/1000</f>
         <v>1E-4</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
@@ -13474,7 +12902,7 @@
         <f>0.05/1000</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
